--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Main PID under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prefix for SKOS Onotlogy which our base for defining SKOS based controlled vocabulary</t>
+          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically state unit of measurements for terms (i.e., variables) we are defining </t>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1090,11 +1090,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>http://purl.org/aspect/EnviromentalConditionTerms</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1133,7 +1129,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>http://purl.org/aspect/wind_speed</t>
+          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative and quantitative variables describing ...</t>
+          <t>Quantitative and qualitative variables describing ...</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -840,17 +840,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -874,17 +874,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://orcid.org/0000-0003-4645-9442</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -908,17 +908,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
+          <t>https://orcid.org/0000-0002-9719-9161</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -942,17 +942,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-24T09:33+02:00</t>
+          <t>https://orcid.org/0000-0002-9346-0190</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -976,11 +976,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-8954-0470</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1002,64 +1010,28 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>https://orcid.org/0000-0001-8888-635X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>qudt:unit</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1072,21 +1044,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>incentive-vars:AtmosphericParameter</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Atmospheric Parameter</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>https://orcid.org/0000-0003-1352-9213</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1106,39 +1078,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>incentive-vars:wind_speed</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>wind_speed</t>
+          <t>https://orcid.org/0000-0001-6796-6780</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>unit:M-PER-SEC</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>incentive-vars:AtmosphericParameter</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
@@ -1152,11 +1112,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9432-4297</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1178,11 +1146,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-5914-3554</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1204,11 +1180,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0001-5323-3180</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1227,6 +1211,1176 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-08-23T18:13+02:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021-09-22T14:00+02:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>qudt:unit</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>incentive-vars:AtmosphericParameter</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Atmospheric Parameter</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>incentive-vars:wind_speed</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>wind_speed</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>unit:M-PER-SEC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>incentive-vars:AtmosphericParameter</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,7 @@
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -480,6 +481,7 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,6 +520,7 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -556,6 +559,7 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -594,6 +598,7 @@
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -632,6 +637,7 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -670,6 +676,7 @@
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -708,6 +715,7 @@
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -734,6 +742,7 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -768,6 +777,7 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -802,6 +812,7 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -836,6 +847,7 @@
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -870,6 +882,7 @@
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -904,6 +917,7 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -938,6 +952,7 @@
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -972,6 +987,7 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1006,6 +1022,7 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1040,6 +1057,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1074,6 +1092,7 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1108,6 +1127,7 @@
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1142,6 +1162,7 @@
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1176,6 +1197,7 @@
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1210,6 +1232,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1244,6 +1267,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1278,6 +1302,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1312,6 +1337,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1346,6 +1372,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1372,6 +1399,7 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1386,7 +1414,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>qudt:unit</t>
+          <t>qudt:unit(separator=",")</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1442,23 +1470,28 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>incentive-vars:AtmosphericParameter</t>
+          <t>incentive-vars:IgGSubclasses</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Atmospheric Parameter</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>IgG Subclasses</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>This is a parent concept containing controlled terms representing to the atmospheric variables.</t>
+          <t>levels of IgG subclasses to Flu antigens</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1466,7 +1499,11 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -1476,41 +1513,42 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>incentive-vars:wind_speed</t>
+          <t>incentive-vars:IgG1-HA1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>wind_speed</t>
+          <t>IgG1-HA1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>unit:M-PER-SEC</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>incentive-vars:AtmosphericParameter</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>https://mmisw.org/ont/cf/parameter/wind_speed</t>
-        </is>
-      </c>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -1522,23 +1560,44 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>incentive-vars:IgG2-HA1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IgG2-HA1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -1548,23 +1607,44 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+          <t>incentive-vars:IgG3-HA1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>IgG3-HA1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -1574,23 +1654,44 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+          <t>incentive-vars:IgG4-HA1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IgG4-HA1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -1600,17 +1701,30 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+          <t>incentive-vars:SurfaceAntigens-FC</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Surface Antigens-FC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>level of surface antigenexpression</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1626,19 +1740,36 @@
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+          <t>incentive-vars:CD3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CD3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>level of CD3 expression</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>incentive-vars:SurfaceAntigens-FC</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1652,17 +1783,30 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+          <t>incentive-vars:Cytokines-FC</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cytokines-FC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>level of cytokine expreesion/secretion</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1678,19 +1822,36 @@
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+          <t>incentive-vars:IFNg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IFNg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>level of IFNg expression/secretion</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>incentive-vars:Cytokines</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1704,17 +1865,30 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
+          <t>incentive-vars:Chemokines-FC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chemokines-FC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>level of chemokine expression</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1730,6 +1904,7 @@
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1756,6 +1931,7 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1782,6 +1958,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1808,6 +1985,7 @@
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1834,6 +2012,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1860,6 +2039,7 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1886,6 +2066,7 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1912,6 +2093,7 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1938,6 +2120,7 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1964,6 +2147,7 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1990,6 +2174,7 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2016,6 +2201,7 @@
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2042,6 +2228,7 @@
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2068,6 +2255,7 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2094,6 +2282,7 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2120,6 +2309,7 @@
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2146,6 +2336,7 @@
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2172,6 +2363,7 @@
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2198,6 +2390,7 @@
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2224,6 +2417,7 @@
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2250,6 +2444,7 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2276,6 +2471,7 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2302,6 +2498,7 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2328,6 +2525,7 @@
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2354,6 +2552,7 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2380,6 +2579,34 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>incentive-vars:</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1909,10 +1909,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>incentive-vars:test</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1475,7 +1475,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
+          <t>incentive-vars:1000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>incentive-vars:IgG1-HA1</t>
+          <t>incentive-vars:1001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>incentive-vars:IgG2-HA1</t>
+          <t>incentive-vars:1002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>incentive-vars:IgG3-HA1</t>
+          <t>incentive-vars:1003</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:IgG4-HA1</t>
+          <t>incentive-vars:1004</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1706,7 +1706,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:SurfaceAntigens-FC</t>
+          <t>incentive-vars:1005</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1745,7 +1745,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:CD3</t>
+          <t>incentive-vars:1006</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:Cytokines-FC</t>
+          <t>incentive-vars:1007</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1827,7 +1827,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:IFNg</t>
+          <t>incentive-vars:1008</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:Chemokines-FC</t>
+          <t>incentive-vars:1009</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:test</t>
+          <t>incentive-vars:1010</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1011</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1967,7 +1967,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1012</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1994,7 +1994,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1013</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -2021,7 +2021,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2048,7 +2048,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2075,7 +2075,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1016</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2102,7 +2102,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1017</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2129,7 +2129,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1018</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1019</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2183,7 +2183,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2210,7 +2210,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1021</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1023</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2291,7 +2291,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2318,7 +2318,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2345,7 +2345,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1026</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1027</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2399,7 +2399,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1028</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1029</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2453,7 +2453,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1030</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2480,7 +2480,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1031</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2507,7 +2507,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1032</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2534,7 +2534,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1033</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1034</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2588,7 +2588,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>incentive-vars:</t>
+          <t>incentive-vars:1035</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1272,7 +1272,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1307,7 +1307,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:created^^xsd:dateTime</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1342,7 +1342,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:modified^^xsd:dateTime</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1307,12 +1307,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:dateTime</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-08-23T18:13+02:00</t>
+          <t>2021-08-23T16:13+00:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1342,17 +1342,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:dateTime</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-09-22T14:00+02:00</t>
+          <t>2022-06-04T10:08:26+00:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,17 +647,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>iop</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
+          <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+          <t>I-ADOPT Ontology</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -686,17 +686,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>https://w3id.org/env/puv</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+          <t>A simple ontology which implements the Parameter Usage 
+Vocabulary semantic model, as described at 
+https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -720,12 +722,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Semantic Sensor Network Ontology</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -747,20 +761,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -782,20 +800,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative variables describing ...</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -817,19 +839,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -852,17 +866,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
+          <t>INCENTIVE Project Variables</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -887,17 +901,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4645-9442</t>
+          <t>Quantitative and qualitative variables describing ...</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -922,17 +936,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9719-9161</t>
+          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -962,7 +976,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9346-0190</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -997,7 +1011,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-8954-0470</t>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1032,7 +1046,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-8888-635X</t>
+          <t>https://orcid.org/0000-0003-4645-9442</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1067,7 +1081,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-1352-9213</t>
+          <t>https://orcid.org/0000-0002-9719-9161</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1102,7 +1116,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-6796-6780</t>
+          <t>https://orcid.org/0000-0002-9346-0190</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1137,7 +1151,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9432-4297</t>
+          <t>https://orcid.org/0000-0002-8954-0470</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1172,7 +1186,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-5914-3554</t>
+          <t>https://orcid.org/0000-0001-8888-635X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1207,7 +1221,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-5323-3180</t>
+          <t>https://orcid.org/0000-0003-1352-9213</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1237,17 +1251,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0001-6796-6780</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1272,17 +1286,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>https://orcid.org/0000-0002-9432-4297</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1307,17 +1321,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-08-23T16:13+00:00</t>
+          <t>https://orcid.org/0000-0002-5914-3554</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1342,17 +1356,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-06-04T10:08:26+00:00</t>
+          <t>https://orcid.org/0000-0001-5323-3180</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1377,11 +1391,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1404,64 +1426,28 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1475,35 +1461,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>incentive-vars:1000</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IgG Subclasses</t>
+          <t>2021-08-23T16:13+00:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MFI</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>levels of IgG subclasses to Flu antigens</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -1518,39 +1496,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>incentive-vars:1001</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IgG1-HA1</t>
+          <t>2022-06-04T10:17:05+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MFI</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>incentive-vars:IgGSubclasses</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -1565,39 +1531,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>incentive-vars:1002</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>IgG2-HA1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>incentive-vars:IgGSubclasses</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -1612,40 +1558,64 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>incentive-vars:1003</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IgG3-HA1</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MFI</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1659,12 +1629,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:1004</t>
+          <t>incentive-vars:1000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IgG4-HA1</t>
+          <t>IgG Subclasses</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1675,15 +1645,11 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
+          <t>levels of IgG subclasses to Flu antigens</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>incentive-vars:IgGSubclasses</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1706,31 +1672,39 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:1005</t>
+          <t>incentive-vars:1001</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Surface Antigens-FC</t>
+          <t>IgG1-HA1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>level of surface antigenexpression</t>
+          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -1745,35 +1719,39 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:1006</t>
+          <t>incentive-vars:1002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>IgG2-HA1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>level of CD3 expression</t>
+          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>incentive-vars:SurfaceAntigens-FC</t>
+          <t>incentive-vars:IgGSubclasses</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
@@ -1788,31 +1766,39 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:1007</t>
+          <t>incentive-vars:1003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Cytokines-FC</t>
+          <t>IgG3-HA1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>level of cytokine expreesion/secretion</t>
+          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>incentive-vars:IgGSubclasses</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -1827,35 +1813,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:1008</t>
+          <t>incentive-vars:1004</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>IgG4-HA1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>level of IFNg expression/secretion</t>
+          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>incentive-vars:Cytokines</t>
+          <t>incentive-vars:IgGSubclasses</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -1870,12 +1860,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:1009</t>
+          <t>incentive-vars:1005</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chemokines-FC</t>
+          <t>Surface Antigens-FC</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1886,7 +1876,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>level of chemokine expression</t>
+          <t>level of surface antigenexpression</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1909,19 +1899,31 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:1010</t>
+          <t>incentive-vars:1006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>CD3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>level of CD3 expression</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>incentive-vars:SurfaceAntigens-FC</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1940,13 +1942,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:1011</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+          <t>incentive-vars:1007</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cytokines-FC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>level of cytokine expreesion/secretion</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1967,15 +1981,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:1012</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
+          <t>incentive-vars:1008</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>IFNg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>level of IFNg expression/secretion</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>incentive-vars:Cytokines</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1994,13 +2024,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:1013</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
+          <t>incentive-vars:1009</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Chemokines-FC</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>level of chemokine expression</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2021,10 +2063,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive-vars:1014</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>incentive-vars:1010</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -2048,7 +2094,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incentive-vars:1015</t>
+          <t>incentive-vars:1011</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2075,7 +2121,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>incentive-vars:1016</t>
+          <t>incentive-vars:1012</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2102,7 +2148,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>incentive-vars:1017</t>
+          <t>incentive-vars:1013</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2129,7 +2175,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>incentive-vars:1018</t>
+          <t>incentive-vars:1014</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -2156,7 +2202,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>incentive-vars:1019</t>
+          <t>incentive-vars:1015</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -2183,7 +2229,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>incentive-vars:1020</t>
+          <t>incentive-vars:1016</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2210,7 +2256,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>incentive-vars:1021</t>
+          <t>incentive-vars:1017</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2237,7 +2283,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>incentive-vars:1022</t>
+          <t>incentive-vars:1018</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2264,7 +2310,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>incentive-vars:1023</t>
+          <t>incentive-vars:1019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2291,7 +2337,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incentive-vars:1024</t>
+          <t>incentive-vars:1020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -2318,7 +2364,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>incentive-vars:1025</t>
+          <t>incentive-vars:1021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2345,7 +2391,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incentive-vars:1026</t>
+          <t>incentive-vars:1022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -2372,7 +2418,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>incentive-vars:1027</t>
+          <t>incentive-vars:1023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2399,7 +2445,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>incentive-vars:1028</t>
+          <t>incentive-vars:1024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -2426,7 +2472,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>incentive-vars:1029</t>
+          <t>incentive-vars:1025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -2453,7 +2499,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>incentive-vars:1030</t>
+          <t>incentive-vars:1026</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -2480,7 +2526,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>incentive-vars:1031</t>
+          <t>incentive-vars:1027</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -2507,7 +2553,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>incentive-vars:1032</t>
+          <t>incentive-vars:1028</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -2534,7 +2580,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>incentive-vars:1033</t>
+          <t>incentive-vars:1029</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -2561,7 +2607,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>incentive-vars:1034</t>
+          <t>incentive-vars:1030</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -2588,7 +2634,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>incentive-vars:1035</t>
+          <t>incentive-vars:1031</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -2612,6 +2658,114 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>incentive-vars:1032</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>incentive-vars:1033</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>incentive-vars:1034</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>incentive-vars:1035</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T10:17:05+00:00</t>
+          <t>2022-06-04T10:57:00+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:AK69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,22 @@
       <c r="S1" t="inlineStr"/>
       <c r="T1" t="inlineStr"/>
       <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,6 +498,22 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -521,6 +553,22 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +608,22 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,6 +663,22 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -638,6 +718,22 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -677,6 +773,22 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +830,22 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -757,6 +885,22 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -796,6 +940,22 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -835,6 +995,22 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -862,6 +1038,22 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -897,6 +1089,22 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,6 +1140,22 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -967,6 +1191,22 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1002,6 +1242,22 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1037,6 +1293,22 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1072,6 +1344,22 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1107,6 +1395,22 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1142,6 +1446,22 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1177,6 +1497,22 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1212,6 +1548,22 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1247,6 +1599,22 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1282,6 +1650,22 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1317,6 +1701,22 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1352,6 +1752,22 @@
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1387,6 +1803,22 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1422,6 +1854,22 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1457,6 +1905,22 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1492,6 +1956,22 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1501,7 +1981,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T10:57:00+00:00</t>
+          <t>2022-06-04T11:12:52+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1527,6 +2007,22 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1554,6 +2050,22 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1603,28 +2115,84 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1637,11 +2205,7 @@
           <t>IgG Subclasses</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
@@ -1652,22 +2216,74 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1680,11 +2296,7 @@
           <t>IgG1-HA1</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
@@ -1700,21 +2312,41 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1727,11 +2359,7 @@
           <t>IgG2-HA1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
@@ -1747,21 +2375,41 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1774,11 +2422,7 @@
           <t>IgG3-HA1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -1794,21 +2438,41 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1821,11 +2485,7 @@
           <t>IgG4-HA1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
@@ -1841,21 +2501,41 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>MFI</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1868,11 +2548,7 @@
           <t>Surface Antigens-FC</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>MFI,%</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
@@ -1891,10 +2567,30 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1907,11 +2603,7 @@
           <t>CD3</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>MFI,%</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
@@ -1934,10 +2626,30 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1950,11 +2662,7 @@
           <t>Cytokines-FC</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MFI,%</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
@@ -1973,10 +2681,30 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1989,11 +2717,7 @@
           <t>IFNg</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>MFI,%</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2740,30 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2032,11 +2776,7 @@
           <t>Chemokines-FC</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>MFI,%</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
@@ -2055,10 +2795,30 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2090,6 +2850,22 @@
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2117,6 +2893,22 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2144,6 +2936,22 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2171,6 +2979,22 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2198,6 +3022,22 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2225,6 +3065,22 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2252,6 +3108,22 @@
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2279,6 +3151,22 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2306,6 +3194,22 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2333,6 +3237,22 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2360,6 +3280,22 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2387,6 +3323,22 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2414,6 +3366,22 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2441,6 +3409,22 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2468,6 +3452,22 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2495,6 +3495,22 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2522,6 +3538,22 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2549,6 +3581,22 @@
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2576,6 +3624,22 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2603,6 +3667,22 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2630,6 +3710,22 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2657,6 +3753,22 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2684,6 +3796,22 @@
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2711,6 +3839,22 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2738,6 +3882,22 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2765,6 +3925,22 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T11:12:52+00:00</t>
+          <t>2022-06-04T11:15:15+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2216,51 +2216,15 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
@@ -2311,14 +2275,46 @@
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
           <t>MFI</t>
@@ -2569,7 +2565,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2846,7 +2842,11 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>MFI,%</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -803,7 +803,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv</t>
+          <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T11:15:15+00:00</t>
+          <t>2022-06-04T11:19:01+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2277,42 +2277,42 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>test</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>test</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>test</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>test</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>test</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>test</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>test</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>test</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -2624,7 +2624,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2679,7 +2679,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2738,7 +2738,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2844,7 +2844,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>MFI,%</t>
+          <t>MFI</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK69"/>
+  <dimension ref="A1:AK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T11:19:01+00:00</t>
+          <t>2022-06-04T11:26:36+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>skos:broader(separator=",")</t>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2270,7 +2270,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
+          <t>IgG Subclasses</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
+          <t>IgG Subclasses</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2428,7 +2428,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
+          <t>IgG Subclasses</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2491,7 +2491,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>incentive-vars:IgGSubclasses</t>
+          <t>IgG Subclasses</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>incentive-vars:SurfaceAntigens-FC</t>
+          <t>Surface Antigens-FC</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2723,7 +2723,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>incentive-vars:Cytokines</t>
+          <t>Cytokines-FC</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2822,11 +2822,7 @@
           <t>incentive-vars:1010</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -2842,11 +2838,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -3899,49 +3891,6 @@
       <c r="AJ68" t="inlineStr"/>
       <c r="AK68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>incentive-vars:1035</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
-      <c r="AH69" t="inlineStr"/>
-      <c r="AI69" t="inlineStr"/>
-      <c r="AJ69" t="inlineStr"/>
-      <c r="AK69" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/incentive</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -471,6 +471,8 @@
       <c r="AI1" t="inlineStr"/>
       <c r="AJ1" t="inlineStr"/>
       <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +516,8 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,12 +527,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>incentive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/incentive/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -569,6 +573,8 @@
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,6 +630,8 @@
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -679,6 +687,8 @@
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +744,8 @@
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -789,6 +801,8 @@
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -846,6 +860,8 @@
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -901,6 +917,8 @@
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -956,6 +974,8 @@
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1011,6 +1031,8 @@
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1054,6 +1076,8 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1063,7 +1087,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
+          <t>INCENTIVE Project Controlled Vocabulary</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1105,6 +1129,8 @@
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1156,6 +1182,8 @@
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1207,6 +1235,8 @@
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1258,6 +1288,8 @@
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1309,6 +1341,8 @@
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1360,6 +1394,8 @@
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1411,6 +1447,8 @@
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1462,6 +1500,8 @@
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1513,6 +1553,8 @@
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1564,6 +1606,8 @@
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1615,6 +1659,8 @@
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1666,6 +1712,8 @@
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1717,6 +1765,8 @@
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1768,6 +1818,8 @@
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1819,6 +1871,8 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1870,6 +1924,8 @@
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1921,11 +1977,13 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1972,16 +2030,18 @@
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-04T11:26:36+00:00</t>
+          <t>2022-06-25T18:49:33+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2023,6 +2083,8 @@
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2066,6 +2128,8 @@
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2080,106 +2144,114 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+          <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>iop:hasProperty</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>puv:statistic(separator=",")</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>puv:uom(separator=",")</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>puv:uom(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -2193,11 +2265,13 @@
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:1000</t>
+          <t>incentive:1000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2206,12 +2280,12 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>levels of IgG subclasses to Flu antigens</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2227,12 +2301,12 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2248,11 +2322,13 @@
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
       <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:1001</t>
+          <t>incentive:1001</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2261,20 +2337,24 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>levels of immunoglobulin G-1against HA-1 antigen</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>IgG Subclasses</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr">
         <is>
           <t>test</t>
@@ -2312,22 +2392,18 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2343,11 +2419,13 @@
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:1002</t>
+          <t>incentive:1002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2356,18 +2434,18 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>IgG Subclasses</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2377,20 +2455,20 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2406,11 +2484,13 @@
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:1003</t>
+          <t>incentive:1003</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2419,18 +2499,18 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>IgG Subclasses</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2440,20 +2520,20 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2469,11 +2549,13 @@
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
       <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:1004</t>
+          <t>incentive:1004</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2482,18 +2564,18 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>IgG Subclasses</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2503,20 +2585,20 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-3277-3107</t>
         </is>
       </c>
-      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2532,11 +2614,13 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:1005</t>
+          <t>incentive:1005</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2545,12 +2629,12 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>level of surface antigenexpression</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2562,12 +2646,12 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2587,11 +2671,13 @@
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:1006</t>
+          <t>incentive:1006</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2600,18 +2686,18 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>level of CD3 expression</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>Surface Antigens-FC</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2621,12 +2707,12 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2646,11 +2732,13 @@
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:1007</t>
+          <t>incentive:1007</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2659,12 +2747,12 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>level of cytokine expreesion/secretion</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2676,12 +2764,12 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2701,11 +2789,13 @@
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:1008</t>
+          <t>incentive:1008</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2714,18 +2804,18 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>level of IFNg expression/secretion</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Cytokines-FC</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2735,12 +2825,12 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2760,11 +2850,13 @@
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:1009</t>
+          <t>incentive:1009</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2773,12 +2865,12 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>level of chemokine expression</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2790,12 +2882,12 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>MFI</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2815,1081 +2907,8 @@
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>incentive-vars:1010</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>incentive-vars:1011</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>incentive-vars:1012</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>incentive-vars:1013</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>incentive-vars:1014</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>incentive-vars:1015</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>incentive-vars:1016</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>incentive-vars:1017</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>incentive-vars:1018</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>incentive-vars:1019</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>incentive-vars:1020</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>incentive-vars:1021</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>incentive-vars:1022</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>incentive-vars:1023</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>incentive-vars:1024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>incentive-vars:1025</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>incentive-vars:1026</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>incentive-vars:1027</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>incentive-vars:1028</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>incentive-vars:1029</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>incentive-vars:1030</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>incentive-vars:1031</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>incentive-vars:1032</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>incentive-vars:1033</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>incentive-vars:1034</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-25T18:49:33+00:00</t>
+          <t>2022-06-26T01:45:58+00:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2350,14 +2350,10 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>http://vocabs.lter-europe.net/EnvThes/30181</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2910,6 +2906,55 @@
       <c r="AL43" t="inlineStr"/>
       <c r="AM43" t="inlineStr"/>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>incentive:1010</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Avidity of IgG subclass to influenza virus antigen</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,11 +1037,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>obo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1082,19 +1090,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>INCENTIVE Project Controlled Vocabulary</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1135,17 +1135,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative variables describing ...</t>
+          <t>INCENTIVE Project Controlled Vocabulary</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1188,17 +1188,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
+          <t>Quantitative and qualitative variables describing ...</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1241,17 +1241,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1347,17 +1347,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4645-9442</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1400,17 +1400,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9719-9161</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1453,17 +1453,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9346-0190</t>
+          <t>2021-08-23T16:13+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1506,17 +1506,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-8954-0470</t>
+          <t>2022-06-28T02:07:26+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1559,19 +1559,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-8888-635X</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1612,40 +1604,124 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-1352-9213</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -1665,19 +1741,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>incentive:1000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-6796-6780</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>assay</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1718,19 +1790,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>incentive:1001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9432-4297</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1771,22 +1839,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>obo:OBI_0002145</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-5914-3554</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>antigen specific antibodies assay</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>An analyte assay that measures the presence or amount of antibodies to a specified antigen.</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1824,22 +1896,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>incentive:1003</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-5323-3180</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t xml:space="preserve">quantitative suspension multiplex assay to measure IgG subclasses and avidity to influenza virus antigens </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>multiplex assay that measures the amount and avidity of a specific IgG subclass to several influenza virus antigens</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>antigen specific antibodies assay</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1877,22 +1953,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>obo:OBI_0003097</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>liquid chromatography mass spectrometry assay</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A mass spectrometry assay where a sample mixture is first separated by liquid chromatography before being converted into ions which are characterized by using mass spectrometry based on their mass-to-charge ratio and relative abundance.</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1930,22 +2010,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>obo:OBI_0003229</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.1.1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>plasma proteomics assay</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>A proteomics profiling assay that detects proteins in a blood plasma specimen.</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1983,22 +2067,26 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>obo:OBI_0001271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-08-23T16:13+00:00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>RNA-seq assay</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>An RNA sequencing assay that determines an RNA sequence by analyzing the transcibed regions of the genome and or to quantitate transcript abundance.</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2036,22 +2124,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>obo:ERO_0000637</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-06-26T01:45:58+00:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>multiplex bead-based assay</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A molecular assay that permits the simultaneous measurement of an array of proteins in a single, small volume sample.</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2089,14 +2181,30 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>incentive:1004</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>singleplex bead-based assay</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>A type of solid-phase multiplex assay that uses microbeads coated with recombinant or infinity purified antigens from a single allele for the detection and identification of an antibody that would bind and react to this antigen.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C130182</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2134,124 +2242,44 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>obo:OBI_0000916</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
+          <t>flow cytometry assay</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
+          <t>A cytometry assay in which an input cell population is put in solution, is passed by a laser, and optical sensors are used to detect scattering of the laser light and/or fluorescence of specific markers to count and characterize the particles in solution.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>assay</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
@@ -2271,22 +2299,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive:1000</t>
+          <t>obo:OBI_0000920</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IgG Subclasses</t>
+          <t>cytometric bead array assay</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>levels of IgG subclasses to Flu antigens</t>
+          <t>An analyte assay in which a series of beads coated with antibodies, antigens, or other small molecules are used to detect an analyte of interest.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2302,11 +2334,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2328,78 +2356,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive:1001</t>
+          <t>incentive:1011</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IgG1-HA1</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/30181</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2421,24 +2405,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive:1002</t>
+          <t>incentive:1012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IgG2-HA1</t>
+          <t xml:space="preserve">antibody crossreactivity between vaccine antigens </t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>IgG Subclasses</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2451,20 +2431,12 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2486,24 +2458,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive:1003</t>
+          <t>incentive:1013</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IgG3-HA1</t>
+          <t>functionality of vaccine induced antibodies</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>IgG Subclasses</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2516,20 +2484,12 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2551,24 +2511,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive:1004</t>
+          <t>incentive:1014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IgG4-HA1</t>
+          <t>antibodies as biomarkers of vaccine protection</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IgG Subclasses</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2581,20 +2537,12 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2616,22 +2564,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive:1005</t>
+          <t>obo:CHEBI_59163</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Surface Antigens-FC</t>
+          <t>biomarker</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>level of surface antigenexpression</t>
+          <t>A substance used as an indicator of a biological state.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2642,11 +2594,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
@@ -2673,24 +2621,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive:1006</t>
+          <t>obo:NCIT_C131144</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CD3</t>
+          <t>immunoresponse</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>level of CD3 expression</t>
+          <t>A marked decrease in contrast enhancement that is not due to actual tumor shrinkage, but that may be due to immunotherapy.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Surface Antigens-FC</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2703,11 +2651,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -2734,22 +2678,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive:1007</t>
+          <t>obo:NCIT_C54680</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cytokines-FC</t>
+          <t>mechanism of action</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>level of cytokine expreesion/secretion</t>
+          <t>The mechanism by which a pharmacologically active substance produces an effect on a living organism or in a biochemical system.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2760,11 +2708,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -2791,24 +2735,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive:1008</t>
+          <t>incentive:1018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IFNg</t>
+          <t>vaccine response evaluation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>level of IFNg expression/secretion</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cytokines-FC</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2821,11 +2761,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
@@ -2852,22 +2788,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive:1009</t>
+          <t>incentive:1019</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chemokines-FC</t>
+          <t>biomarker links pre-vaccination response to vaccine response</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>level of chemokine expression</t>
-        </is>
-      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2878,11 +2814,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
@@ -2909,18 +2841,26 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive:1010</t>
+          <t>obo:OMP_0007632</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avidity of IgG subclass to influenza virus antigen</t>
+          <t>cell phenotype</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A microbial phenotype that is observed at the level of an individual cell. This is a high-level term whose primary purpose is to organize terms beneath it in the ontology, and we recommend that it not be used for direct annotation. Please consider using a more specific term to annotate each phenotype.</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2955,6 +2895,63 @@
       <c r="AL44" t="inlineStr"/>
       <c r="AM44" t="inlineStr"/>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>obo:OBA_0003194</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cell functionality</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The functionality of a cell.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,11 +1090,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>bao</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://www.bioassayontology.org/bao#</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1135,17 +1143,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Controlled Vocabulary</t>
+          <t>sio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>http://semanticscience.org/resource/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1188,19 +1196,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:description</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Quantitative and qualitative variables describing ...</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1241,17 +1241,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
+          <t>INCENTIVE Project Controlled Vocabulary</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1294,17 +1294,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>Quantitative and qualitative variables describing ...</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1347,17 +1347,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1400,17 +1400,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1453,17 +1453,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-08-23T16:13+00:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1506,17 +1506,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-28T02:07:26+00:00</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1559,11 +1559,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-08-23T16:13+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1604,124 +1612,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>2022-06-28T03:12:01+00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -1741,14 +1665,10 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>incentive:1000</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>assay</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1790,36 +1710,124 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>incentive:1001</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -1839,26 +1847,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>obo:OBI_0002145</t>
+          <t>incentive:1000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>antigen specific antibodies assay</t>
+          <t>assay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>An analyte assay that measures the presence or amount of antibodies to a specified antigen.</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>assay</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1896,26 +1896,18 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>incentive:1003</t>
+          <t>incentive:1001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">quantitative suspension multiplex assay to measure IgG subclasses and avidity to influenza virus antigens </t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>multiplex assay that measures the amount and avidity of a specific IgG subclass to several influenza virus antigens</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>antigen specific antibodies assay</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1953,18 +1945,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>obo:OBI_0003097</t>
+          <t>obo:OBI_0002145</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>liquid chromatography mass spectrometry assay</t>
+          <t>antigen specific antibodies assay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A mass spectrometry assay where a sample mixture is first separated by liquid chromatography before being converted into ions which are characterized by using mass spectrometry based on their mass-to-charge ratio and relative abundance.</t>
+          <t>An analyte assay that measures the presence or amount of antibodies to a specified antigen.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2010,24 +2002,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>obo:OBI_0003229</t>
+          <t>incentive:1003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>plasma proteomics assay</t>
+          <t xml:space="preserve">quantitative suspension multiplex assay to measure IgG subclasses and avidity to influenza virus antigens </t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>A proteomics profiling assay that detects proteins in a blood plasma specimen.</t>
+          <t>multiplex assay that measures the amount and avidity of a specific IgG subclass to several influenza virus antigens</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>assay</t>
+          <t>antigen specific antibodies assay</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2067,18 +2059,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>obo:OBI_0001271</t>
+          <t>obo:OBI_0003097</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RNA-seq assay</t>
+          <t>liquid chromatography mass spectrometry assay</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>An RNA sequencing assay that determines an RNA sequence by analyzing the transcibed regions of the genome and or to quantitate transcript abundance.</t>
+          <t>A mass spectrometry assay where a sample mixture is first separated by liquid chromatography before being converted into ions which are characterized by using mass spectrometry based on their mass-to-charge ratio and relative abundance.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2124,18 +2116,18 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>obo:ERO_0000637</t>
+          <t>obo:OBI_0003229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>multiplex bead-based assay</t>
+          <t>plasma proteomics assay</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A molecular assay that permits the simultaneous measurement of an array of proteins in a single, small volume sample.</t>
+          <t>A proteomics profiling assay that detects proteins in a blood plasma specimen.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2181,25 +2173,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>incentive:1004</t>
+          <t>obo:OBI_0001271</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>singleplex bead-based assay</t>
+          <t>RNA-seq assay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A type of solid-phase multiplex assay that uses microbeads coated with recombinant or infinity purified antigens from a single allele for the detection and identification of an antibody that would bind and react to this antigen.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C130182</t>
-        </is>
-      </c>
+          <t>An RNA sequencing assay that determines an RNA sequence by analyzing the transcibed regions of the genome and or to quantitate transcript abundance.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>assay</t>
@@ -2242,18 +2230,18 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>obo:OBI_0000916</t>
+          <t>obo:ERO_0000637</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>flow cytometry assay</t>
+          <t>multiplex bead-based assay</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A cytometry assay in which an input cell population is put in solution, is passed by a laser, and optical sensors are used to detect scattering of the laser light and/or fluorescence of specific markers to count and characterize the particles in solution.</t>
+          <t>A molecular assay that permits the simultaneous measurement of an array of proteins in a single, small volume sample.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2299,21 +2287,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>obo:OBI_0000920</t>
+          <t>incentive:1004</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cytometric bead array assay</t>
+          <t>singleplex bead-based assay</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>An analyte assay in which a series of beads coated with antibodies, antigens, or other small molecules are used to detect an analyte of interest.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>A type of solid-phase multiplex assay that uses microbeads coated with recombinant or infinity purified antigens from a single allele for the detection and identification of an antibody that would bind and react to this antigen.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C130182</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>assay</t>
@@ -2356,18 +2348,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive:1011</t>
+          <t>obo:OBI_0000916</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>flow cytometry assay</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>A cytometry assay in which an input cell population is put in solution, is passed by a laser, and optical sensors are used to detect scattering of the laser light and/or fluorescence of specific markers to count and characterize the particles in solution.</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>assay</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -2405,20 +2405,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive:1012</t>
+          <t>obo:OBI_0000920</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">antibody crossreactivity between vaccine antigens </t>
+          <t>cytometric bead array assay</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>An analyte assay in which a series of beads coated with antibodies, antigens, or other small molecules are used to detect an analyte of interest.</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>assay</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2458,22 +2462,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive:1013</t>
+          <t>incentive:1011</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>functionality of vaccine induced antibodies</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2511,12 +2511,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive:1014</t>
+          <t>incentive:1012</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>antibodies as biomarkers of vaccine protection</t>
+          <t xml:space="preserve">antibody crossreactivity between vaccine antigens </t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2564,20 +2564,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>obo:CHEBI_59163</t>
+          <t>incentive:1013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>biomarker</t>
+          <t>functionality of vaccine induced antibodies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>A substance used as an indicator of a biological state.</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
@@ -2621,20 +2617,16 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>obo:NCIT_C131144</t>
+          <t>incentive:1014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>immunoresponse</t>
+          <t>antibodies as biomarkers of vaccine protection</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>A marked decrease in contrast enhancement that is not due to actual tumor shrinkage, but that may be due to immunotherapy.</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
@@ -2678,18 +2670,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>obo:NCIT_C54680</t>
+          <t>obo:CHEBI_59163</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mechanism of action</t>
+          <t>biomarker</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The mechanism by which a pharmacologically active substance produces an effect on a living organism or in a biochemical system.</t>
+          <t>A substance used as an indicator of a biological state.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2735,16 +2727,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive:1018</t>
+          <t>obo:NCIT_C131144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vaccine response evaluation</t>
+          <t>immunoresponse</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>A marked decrease in contrast enhancement that is not due to actual tumor shrinkage, but that may be due to immunotherapy.</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
@@ -2788,16 +2784,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive:1019</t>
+          <t>obo:NCIT_C54680</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>biomarker links pre-vaccination response to vaccine response</t>
+          <t>mechanism of action</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>The mechanism by which a pharmacologically active substance produces an effect on a living organism or in a biochemical system.</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
@@ -2841,20 +2841,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>obo:OMP_0007632</t>
+          <t>incentive:1018</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cell phenotype</t>
+          <t>vaccine response evaluation</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>A microbial phenotype that is observed at the level of an individual cell. This is a high-level term whose primary purpose is to organize terms beneath it in the ontology, and we recommend that it not be used for direct annotation. Please consider using a more specific term to annotate each phenotype.</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
@@ -2898,20 +2894,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>obo:OBA_0003194</t>
+          <t>incentive:1019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cell functionality</t>
+          <t>biomarker links pre-vaccination response to vaccine response</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>The functionality of a cell.</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
@@ -2952,6 +2944,3177 @@
       <c r="AL45" t="inlineStr"/>
       <c r="AM45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>obo:OMP_0007632</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cell phenotype</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A microbial phenotype that is observed at the level of an individual cell. This is a high-level term whose primary purpose is to organize terms beneath it in the ontology, and we recommend that it not be used for direct annotation. Please consider using a more specific term to annotate each phenotype.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>obo:OBA_0003194</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cell functionality</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>The functionality of a cell.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>incentive:1022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>levels IgG1-rHA_C</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin 1 against recombinant hemaglutionin from the strain A/California/04/2009 wt rHA H1 7871</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>incentive:1023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>levels IgG1-rHA_C with urea</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin 1 against recombinant hemaglutionin from the strain A/California/04/2009 wt rHA H1 7871 with urea</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>incentive:1024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>avidity levels IgG1-rHA_C</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>avidity of immunoglobulin 1 against recombinant hemaglutionin from the strain A/California/04/2009 wt rHA H1 7871</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>incentive:1025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>levels IgG1-rHA_B</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">levels of immunoglobulin 1 against recombinant hemaglutionin from the strain A/Brisbane/02/2018 wt rHA H1 20235 </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>incentive:1026</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>levels IgG1-rHA_B with urea</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>levels of immunoglobulin 1 against recombinant hemaglutionin from the strain A/Brisbane/02/2018 wt rHA H1 20235 with urea</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>incentive:1027</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>avidity levels IgG1-rHA_B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">avidity of immunoglobulin 1 against recombinant hemaglutionin from the strain A/Brisbane/02/2018 wt rHA H1 20235 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>incentive:1028</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>relative concentration of lipids in plasma</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>incentive:1029</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>absolute concentration of metablites in plasma</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>incentive:1030</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>relative concentration of proteins in plasma</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>incentive:1031</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>count of reads of RNAs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>incentive:1032</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>corrected P-value of RNAs</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>incentive:1033</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>fold change of RNAs</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>incentive:1034</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>retention time of lipids in plasma</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>incentive:1035</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>mass to charge of lipids in plasma</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>incentive:1036</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>chemical shift of metabolites in plasma</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>incentive:1037</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>intensity of metabolites in plasma</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>incentive:1038</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>fluorescence of multiple cytokines with luminex</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>incentive:1039</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>fluorescence of multiple cytokines with simoa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>incentive:1040</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cytokine concentration</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>incentive:1041</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>average enzyme per beads</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>incentive:1042</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>fluorescence intensity of immune cell populations in human blood samples</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>incentive:1043</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>median fluorescence intensity of antibodies bound to markers on immune cells in human blood samples</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>incentive:1044</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>frequeny of immune cell populations (phenotype and functionality) in human blood samples</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>incentive:1045</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>counts of immune cell populations (phenotype and functionality) in human blood samples</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>incentive:1046</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>fluorescence intensity of antibody bound to soluble factors in human blood samples</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>incentive:1047</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>concentration of soluble factors in human blood samples</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>incentive:1048</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>mean fluorescence intensity of antibody bound to soluble factors in human blood samples</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>incentive:1049</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>obo:MS_1000894</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>retention time</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>A time interval from the start of chromatography when an analyte exits a chromatographic column.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>incentive:1051</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>retention time of peptides in plasma</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>incentive:1052</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mass to charge of peptides in plasma</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>incentive:1053</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>intensity of peptides in plasma</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>incentive:1054</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>bao:BAO_0000175</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>A protein or polypeptide is a long polymer of amino acids joined together by peptide bonds. The sequence of the amino acids is defined by the genetic code. Here, a protein is a perturbagen whereby its ability to modulate a physiological process or a disease pathology is assessed.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C13356</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>plasma</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C735</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>peptide</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>A compound of two or more amino acids where the alpha carboxyl group of one is bound to the alpha amino group of another.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C14225</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.
+</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C616</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>lipid</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>A class of hydrocarbon-containing organic compounds. Lipids are insoluble in water but soluble in nonpolar solvents and play important roles in living organisms: these roles include functioning as energy storage molecules, serving as structural components of cell membranes, and constituting important signaling molecules. Lipids can be subdivided into 2 groups: fatty acids and glycerides.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>obo:CHEBI_25212</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>metabolite</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Any intermediate or product resulting from metabolism. The term 'metabolite' subsumes the classes commonly known as primary and secondary metabolites.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>bao:BAO_0000270</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>RNA or ribonucleic acid is a polymer of nucleotides with a backbone made of ribose sugar and phosphate groups linked together by ester bonds. RNA has the base uracil instead of thymine, which is present in DNA.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C12434</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>blood</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>incentive:1063</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>IgG1-rHA_C</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>incentive:1064</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>IgG1-rHA_B</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>incentive:1065</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>IgG2-rHA_C</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C20464</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cytokine</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>A class of soluble glycoproteins which act nonenzymatically through specific receptors to regulate immune responses. Cytokines are derived from both immune and non-immune cells and are intercellular mediators that differ from hormones in that they are produced by a number of tissue or cell types rather than by specialized glands.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C16295</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>antibody</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C16554</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>enzyme</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Molecules that catalyze a chemical reaction. They are usually proteins, although catalytic RNA and DNA molecules have been identified.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>obo:OBI_0001875</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cultured immune cell population</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>a cultured cell population comprised of a single type of immune system cell</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C25463</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Determining the number or amount of something.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C16586</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>flourescence</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Fluorescence is a luminescence (i.e., optical phenomenon) in cold bodies, in which a molecule absorbs a high-energy photon, and re-emits it as a lower-energy (longer-wavelength) photon. The energy difference between the absorbed and emitted photons ends up as molecular vibrations (heat).</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>incentive:1072</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>human donor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C163046</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>mean fluorescence intensity unit</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>A unit of measure for the mean fluorescence intensity.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>sio:SIO_001367</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Frequency is the number of occurrences of a repeating event per unit time</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>incentive:1075</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C28385</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>vaccinated</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>A status indicating that an individual has received a vaccination.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>obo:PATO_0001161</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>diluted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>A concentration which relatively low.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM103"/>
+  <dimension ref="A1:AM104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-28T03:12:01+00:00</t>
+          <t>2022-06-28T03:15:41+00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6115,6 +6115,63 @@
       <c r="AL103" t="inlineStr"/>
       <c r="AM103" t="inlineStr"/>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C25554</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>A position on a scale measuring intensity, quality, or amount.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM104"/>
+  <dimension ref="A1:AM107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-28T03:15:41+00:00</t>
+          <t>2022-06-28T06:31:20+00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6172,6 +6172,193 @@
       <c r="AL104" t="inlineStr"/>
       <c r="AM104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C37987</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>alive</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Showing characteristics of life; displaying signs of life.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>incentive:1080</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>concentration of soluble factors in human blood samples</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>sio:SIO_001088</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C20464</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C12434</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>incentive:1072</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C28385</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sio:SIO_001088</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>concentration</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>concentration is the amount of substance per unit volume of a solution</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM107"/>
+  <dimension ref="A1:AM106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-06-28T06:31:20+00:00</t>
+          <t>2022-06-28T06:38:59+00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>concentration of soluble factors in human blood samples</t>
+          <t>mean fluorescence intensity of antibody bound to soluble factors in human blood samples</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -4468,17 +4468,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>mean fluorescence intensity of antibody bound to soluble factors in human blood samples</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -4516,18 +4512,26 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>incentive:1049</t>
+          <t>obo:MS_1000894</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>retention time</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>A time interval from the start of chromatography when an analyte exits a chromatographic column.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>property</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -4565,24 +4569,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>obo:MS_1000894</t>
+          <t>incentive:1050</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>retention time</t>
+          <t>retention time of peptides in plasma</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>A time interval from the start of chromatography when an analyte exits a chromatographic column.</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>retention time of peptides in plasma</t>
+          <t>mass to charge of peptides in plasma</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mass to charge of peptides in plasma</t>
+          <t>intensity of peptides in plasma</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -4733,17 +4733,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>intensity of peptides in plasma</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -4781,18 +4777,26 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>incentive:1054</t>
+          <t>bao:BAO_0000175</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>A protein or polypeptide is a long polymer of amino acids joined together by peptide bonds. The sequence of the amino acids is defined by the genetic code. Here, a protein is a perturbagen whereby its ability to modulate a physiological process or a disease pathology is assessed.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -4830,18 +4834,18 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bao:BAO_0000175</t>
+          <t>obo:NCIT_C13356</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>protein</t>
+          <t>plasma</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>A protein or polypeptide is a long polymer of amino acids joined together by peptide bonds. The sequence of the amino acids is defined by the genetic code. Here, a protein is a perturbagen whereby its ability to modulate a physiological process or a disease pathology is assessed.</t>
+          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -4887,18 +4891,18 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>obo:NCIT_C13356</t>
+          <t>obo:NCIT_C735</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>plasma</t>
+          <t>peptide</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Plasma is the fluid (noncellular) portion of the circulating blood, as distinguished from the serum that is the fluid portion of the blood obtained by removal of the fibrin clot and blood cells after coagulation.</t>
+          <t>A compound of two or more amino acids where the alpha carboxyl group of one is bound to the alpha amino group of another.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -4944,18 +4948,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>obo:NCIT_C735</t>
+          <t>obo:NCIT_C14225</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>peptide</t>
+          <t>human</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A compound of two or more amino acids where the alpha carboxyl group of one is bound to the alpha amino group of another.</t>
+          <t xml:space="preserve">The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.
+</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5001,19 +5006,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>obo:NCIT_C14225</t>
+          <t>obo:NCIT_C616</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>lipid</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">The bipedal primate mammal, Homo sapiens; belonging to man or mankind; pertaining to man or to the race of man; use of man as experimental subject or unit of analysis in research.
-</t>
+          <t>A class of hydrocarbon-containing organic compounds. Lipids are insoluble in water but soluble in nonpolar solvents and play important roles in living organisms: these roles include functioning as energy storage molecules, serving as structural components of cell membranes, and constituting important signaling molecules. Lipids can be subdivided into 2 groups: fatty acids and glycerides.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5059,18 +5063,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>obo:NCIT_C616</t>
+          <t>obo:CHEBI_25212</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lipid</t>
+          <t>metabolite</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A class of hydrocarbon-containing organic compounds. Lipids are insoluble in water but soluble in nonpolar solvents and play important roles in living organisms: these roles include functioning as energy storage molecules, serving as structural components of cell membranes, and constituting important signaling molecules. Lipids can be subdivided into 2 groups: fatty acids and glycerides.</t>
+          <t>Any intermediate or product resulting from metabolism. The term 'metabolite' subsumes the classes commonly known as primary and secondary metabolites.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5116,18 +5120,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>obo:CHEBI_25212</t>
+          <t>bao:BAO_0000270</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>metabolite</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Any intermediate or product resulting from metabolism. The term 'metabolite' subsumes the classes commonly known as primary and secondary metabolites.</t>
+          <t>RNA or ribonucleic acid is a polymer of nucleotides with a backbone made of ribose sugar and phosphate groups linked together by ester bonds. RNA has the base uracil instead of thymine, which is present in DNA.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5173,18 +5177,18 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bao:BAO_0000270</t>
+          <t>obo:NCIT_C12434</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RNA</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>RNA or ribonucleic acid is a polymer of nucleotides with a backbone made of ribose sugar and phosphate groups linked together by ester bonds. RNA has the base uracil instead of thymine, which is present in DNA.</t>
+          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5230,20 +5234,16 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>obo:NCIT_C12434</t>
+          <t>incentive:1062</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>IgG1-rHA_C</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>A liquid tissue; its major function is to transport oxygen throughout the body. It also supplies the tissues with nutrients, removes waste products, and contains various components of the immune system defending the body against infection. Several hormones also travel in the blood.</t>
-        </is>
-      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IgG1-rHA_C</t>
+          <t>IgG1-rHA_B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>IgG1-rHA_B</t>
+          <t>IgG2-rHA_C</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5393,16 +5393,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>incentive:1065</t>
+          <t>obo:NCIT_C20464</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>IgG2-rHA_C</t>
+          <t>cytokine</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>A class of soluble glycoproteins which act nonenzymatically through specific receptors to regulate immune responses. Cytokines are derived from both immune and non-immune cells and are intercellular mediators that differ from hormones in that they are produced by a number of tissue or cell types rather than by specialized glands.</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
@@ -5446,18 +5450,18 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>obo:NCIT_C20464</t>
+          <t>obo:NCIT_C16295</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cytokine</t>
+          <t>antibody</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A class of soluble glycoproteins which act nonenzymatically through specific receptors to regulate immune responses. Cytokines are derived from both immune and non-immune cells and are intercellular mediators that differ from hormones in that they are produced by a number of tissue or cell types rather than by specialized glands.</t>
+          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5503,18 +5507,18 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>obo:NCIT_C16295</t>
+          <t>obo:NCIT_C16554</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>antibody</t>
+          <t>enzyme</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A type of protein made by B lymphocytes in response to a foreign substance (antigen). Each antibody only binds to a specific antigen, helping to destroy the antigen directly or by assisting white blood cells to destroy the antigen.</t>
+          <t>Molecules that catalyze a chemical reaction. They are usually proteins, although catalytic RNA and DNA molecules have been identified.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -5560,18 +5564,18 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>obo:NCIT_C16554</t>
+          <t>obo:OBI_0001875</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>enzyme</t>
+          <t>cultured immune cell population</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Molecules that catalyze a chemical reaction. They are usually proteins, although catalytic RNA and DNA molecules have been identified.</t>
+          <t>a cultured cell population comprised of a single type of immune system cell</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -5617,24 +5621,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>obo:OBI_0001875</t>
+          <t>obo:NCIT_C25463</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cultured immune cell population</t>
+          <t>count</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>a cultured cell population comprised of a single type of immune system cell</t>
+          <t>Determining the number or amount of something.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>property</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -5674,18 +5678,18 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>obo:NCIT_C25463</t>
+          <t>obo:NCIT_C16586</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>flourescence</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Determining the number or amount of something.</t>
+          <t>Fluorescence is a luminescence (i.e., optical phenomenon) in cold bodies, in which a molecule absorbs a high-energy photon, and re-emits it as a lower-energy (longer-wavelength) photon. The energy difference between the absorbed and emitted photons ends up as molecular vibrations (heat).</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -5731,24 +5735,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>obo:NCIT_C16586</t>
+          <t>incentive:1071</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>flourescence</t>
+          <t>human donor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Fluorescence is a luminescence (i.e., optical phenomenon) in cold bodies, in which a molecule absorbs a high-energy photon, and re-emits it as a lower-energy (longer-wavelength) photon. The energy difference between the absorbed and emitted photons ends up as molecular vibrations (heat).</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -5788,20 +5788,24 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>incentive:1072</t>
+          <t>obo:NCIT_C163046</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>human donor</t>
+          <t>mean fluorescence intensity unit</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>A unit of measure for the mean fluorescence intensity.</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>property</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -5841,18 +5845,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>obo:NCIT_C163046</t>
+          <t>sio:SIO_001367</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>mean fluorescence intensity unit</t>
+          <t>frequency</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A unit of measure for the mean fluorescence intensity.</t>
+          <t>Frequency is the number of occurrences of a repeating event per unit time</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -5898,26 +5902,18 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>sio:SIO_001367</t>
+          <t>incentive:1074</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>frequency</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Frequency is the number of occurrences of a repeating event per unit time</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>property</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -5955,18 +5951,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>incentive:1075</t>
+          <t>obo:NCIT_C28385</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>vaccinated</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>A status indicating that an individual has received a vaccination.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>constraint</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
@@ -6004,18 +6008,18 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>obo:NCIT_C28385</t>
+          <t>obo:PATO_0001161</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vaccinated</t>
+          <t>diluted</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>A status indicating that an individual has received a vaccination.</t>
+          <t>A concentration which relatively low.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6061,24 +6065,24 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>obo:PATO_0001161</t>
+          <t>obo:NCIT_C25554</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>diluted</t>
+          <t>level</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>A concentration which relatively low.</t>
+          <t>A position on a scale measuring intensity, quality, or amount.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>property</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -6118,24 +6122,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>obo:NCIT_C25554</t>
+          <t>obo:NCIT_C37987</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>alive</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>A position on a scale measuring intensity, quality, or amount.</t>
+          <t>Showing characteristics of life; displaying signs of life.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -6175,33 +6179,49 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>obo:NCIT_C37987</t>
+          <t>incentive:1079</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>concentration of soluble factors in human blood samples</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Showing characteristics of life; displaying signs of life.</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>sio:SIO_001088</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C20464</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C12434</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>incentive:1072</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>obo:NCIT_C28385</t>
+        </is>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
@@ -6232,49 +6252,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>incentive:1080</t>
+          <t>sio:SIO_001088</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>concentration of soluble factors in human blood samples</t>
+          <t>concentration</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>concentration is the amount of substance per unit volume of a solution</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>property</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>sio:SIO_001088</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>obo:NCIT_C20464</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>obo:NCIT_C12434</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>incentive:1072</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>obo:NCIT_C28385</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr"/>
@@ -6302,63 +6306,6 @@
       <c r="AL106" t="inlineStr"/>
       <c r="AM106" t="inlineStr"/>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>sio:SIO_001088</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>concentration</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>concentration is the amount of substance per unit volume of a solution</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>property</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
-      <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
-      <c r="AK107" t="inlineStr"/>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
